--- a/Spreadsheet Interface/Example_Spreadsheet_240329.xlsx
+++ b/Spreadsheet Interface/Example_Spreadsheet_240329.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\868\022\Calcs\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09204A21-3199-4921-8977-04DA0DE3A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{09204A21-3199-4921-8977-04DA0DE3A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BD2A7A-03A7-4CEA-AEF6-AEDCFC58BF1B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Scenarios" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
   <si>
     <t xml:space="preserve">This sheet contains information that describe facility discharge.  The end user can either pass a hard corded flow into the flow column, or choose 'hydrograph'.  Hydrograph will pull  data from a particular USGS gage and discharge year.  The prorate column increases or decreases discharge based on difference in watersheds.  </t>
   </si>
@@ -139,22 +139,10 @@
     <t>Scipy Lognormal Shape Parameters</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Scientific Name</t>
   </si>
   <si>
     <t>Fish</t>
-  </si>
-  <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
-    <t>param3</t>
   </si>
   <si>
     <t>dist</t>
@@ -176,9 +164,6 @@
   </si>
   <si>
     <t>caudal_AR</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Notes</t>
@@ -416,6 +401,9 @@
   </si>
   <si>
     <t>Peaking</t>
+  </si>
+  <si>
+    <t>Common Name</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1138,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>1995</v>
@@ -1147,7 +1135,7 @@
         <v>1.2466412348710971</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>11</v>
@@ -1158,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1170,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>1995</v>
@@ -1179,7 +1167,7 @@
         <v>1.2466412348710971</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>12</v>
@@ -1190,10 +1178,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H9">
         <v>1995</v>
@@ -1211,7 +1199,7 @@
         <v>1.2466412348710971</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>13</v>
@@ -1222,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1234,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>1995</v>
@@ -1243,7 +1231,7 @@
         <v>1.2466412348710971</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1419,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1437,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1455,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1473,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1491,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1509,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -1527,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1545,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1563,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1581,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1599,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1617,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1635,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1653,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1671,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1689,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1787,25 +1775,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:HA40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38:L40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="16" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="78.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="27" customWidth="1"/>
@@ -2046,49 +2034,49 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="P12" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>21</v>
@@ -2097,21 +2085,21 @@
         <v>22</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>0.70240000000000002</v>
@@ -2123,7 +2111,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J13">
         <v>4.1072446999999998E-2</v>
@@ -2144,18 +2132,18 @@
         <v>3.9940000000000002</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>1.1796</v>
@@ -2167,7 +2155,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J14">
         <v>0.24472333099999999</v>
@@ -2188,18 +2176,18 @@
         <v>25.7684</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>1.0598000000000001</v>
@@ -2211,7 +2199,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J15">
         <v>9.1485506999999994E-2</v>
@@ -2232,18 +2220,18 @@
         <v>39.789900000000003</v>
       </c>
       <c r="S15" s="26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16">
@@ -2256,7 +2244,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J16">
         <v>1.2782142E-2</v>
@@ -2278,18 +2266,18 @@
         <v>7.2782999999999998</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17">
         <v>1.6545000000000001</v>
@@ -2301,7 +2289,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J17">
         <v>1.24702381</v>
@@ -2322,18 +2310,18 @@
         <v>6.9577999999999998</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F18">
         <v>1.8288</v>
@@ -2345,7 +2333,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J18">
         <v>1.306547619</v>
@@ -2366,18 +2354,18 @@
         <v>20.8781</v>
       </c>
       <c r="S18" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F19">
         <v>1.3472</v>
@@ -2389,7 +2377,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <v>0.104438642</v>
@@ -2410,18 +2398,18 @@
         <v>177.69300000000001</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F20">
         <v>0.7349</v>
@@ -2433,7 +2421,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J20">
         <v>0.11123723000000001</v>
@@ -2455,18 +2443,18 @@
         <v>18.677499999999998</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F21">
         <v>1.61</v>
@@ -2478,7 +2466,7 @@
         <v>1.77E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J21">
         <v>4.1003886009999997</v>
@@ -2499,18 +2487,18 @@
         <v>23.284099999999999</v>
       </c>
       <c r="S21" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>1.6739999999999999</v>
@@ -2522,7 +2510,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J22">
         <v>3.4553108809999999</v>
@@ -2543,18 +2531,18 @@
         <v>59.6678</v>
       </c>
       <c r="S22" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>0.80979999999999996</v>
@@ -2566,7 +2554,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J23">
         <v>1.2782142E-2</v>
@@ -2587,18 +2575,18 @@
         <v>8.6914999999999996</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>1.7766</v>
@@ -2610,7 +2598,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J24">
         <v>1.366401816</v>
@@ -2632,18 +2620,18 @@
         <v>11.3407</v>
       </c>
       <c r="S24" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>1.327</v>
@@ -2655,7 +2643,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J25">
         <v>0.35103626900000001</v>
@@ -2676,18 +2664,18 @@
         <v>13.3682</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>0.88280000000000003</v>
@@ -2699,7 +2687,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J26">
         <v>6.5153235000000004E-2</v>
@@ -2720,18 +2708,18 @@
         <v>60.625</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <v>0.88590000000000002</v>
@@ -2743,7 +2731,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J27">
         <v>0.175141243</v>
@@ -2764,18 +2752,18 @@
         <v>17.174499999999998</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>2.0461</v>
@@ -2787,7 +2775,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <v>58.088127290000003</v>
@@ -2808,18 +2796,18 @@
         <v>12.283300000000001</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="F29">
         <v>1.9309000000000001</v>
@@ -2831,7 +2819,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J29">
         <v>19.867809059999999</v>
@@ -2852,18 +2840,18 @@
         <v>35.219799999999999</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F30">
         <v>0.80979999999999996</v>
@@ -2875,7 +2863,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J30">
         <v>1.2782142E-2</v>
@@ -2896,18 +2884,18 @@
         <v>8.6914999999999996</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>1.9146000000000001</v>
@@ -2919,7 +2907,7 @@
         <v>2.64E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J31">
         <v>3.4626682990000002</v>
@@ -2940,18 +2928,18 @@
         <v>14.474600000000001</v>
       </c>
       <c r="S31" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F32">
         <v>1.6916</v>
@@ -2963,7 +2951,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J32">
         <v>0.88739290100000001</v>
@@ -2984,18 +2972,18 @@
         <v>26.683299999999999</v>
       </c>
       <c r="S32" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>0.62539999999999996</v>
@@ -3007,7 +2995,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J33">
         <v>1.4803848999999999E-2</v>
@@ -3028,18 +3016,18 @@
         <v>5.5633999999999997</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F34">
         <v>1.7113</v>
@@ -3051,7 +3039,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J34">
         <v>1.3351063830000001</v>
@@ -3072,18 +3060,18 @@
         <v>16.218800000000002</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F35">
         <v>2.5276000000000001</v>
@@ -3095,7 +3083,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J35">
         <v>21.366071430000002</v>
@@ -3116,18 +3104,18 @@
         <v>14.706300000000001</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F36">
         <v>1.8341000000000001</v>
@@ -3139,7 +3127,7 @@
         <v>1.26E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J36">
         <v>3.1876899700000001</v>
@@ -3160,18 +3148,18 @@
         <v>20.9894</v>
       </c>
       <c r="S36" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F37">
         <v>0.80979999999999996</v>
@@ -3183,7 +3171,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J37">
         <v>1.2782142E-2</v>
@@ -3204,18 +3192,18 @@
         <v>9.7370000000000001</v>
       </c>
       <c r="S37" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <v>1.7131000000000001</v>
@@ -3227,7 +3215,7 @@
         <v>1.55E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J38">
         <v>1.24702381</v>
@@ -3248,18 +3236,18 @@
         <v>7.4603000000000002</v>
       </c>
       <c r="S38" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F39">
         <v>2.0735000000000001</v>
@@ -3271,7 +3259,7 @@
         <v>0.01</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J39">
         <v>1.306547619</v>
@@ -3292,18 +3280,18 @@
         <v>28.9938</v>
       </c>
       <c r="S39" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F40">
         <v>1.3784000000000001</v>
@@ -3315,7 +3303,7 @@
         <v>7.6E-3</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J40">
         <v>0.104438642</v>
@@ -3336,7 +3324,7 @@
         <v>41.919800000000002</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3366,7 @@
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -3460,13 +3448,13 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3476,10 +3464,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3492,10 +3480,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3511,7 +3499,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -3527,7 +3515,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>0.5</v>
@@ -3543,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -3559,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>0.5</v>
@@ -3572,10 +3560,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>0.95</v>
@@ -3588,10 +3576,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3604,10 +3592,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -15757,7 +15745,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -15822,13 +15810,13 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -15837,10 +15825,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -15852,7 +15840,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -15867,7 +15855,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -15882,7 +15870,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -15897,7 +15885,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -15912,10 +15900,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -15930,7 +15918,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -15945,7 +15933,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -15960,7 +15948,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -15975,7 +15963,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -15987,10 +15975,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -16002,10 +15990,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -26840,7 +26828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -26881,7 +26869,7 @@
     </row>
     <row r="2" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -26943,55 +26931,55 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="M5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="N5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="O5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="T5" s="36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26999,7 +26987,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -27020,10 +27008,10 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="T6" s="37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
@@ -27031,7 +27019,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -27052,7 +27040,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="V7" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
@@ -27060,7 +27048,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -27070,7 +27058,7 @@
         <v>410</v>
       </c>
       <c r="V8" s="38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -27078,7 +27066,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>4</v>
